--- a/documentation/Test Scenario.xlsx
+++ b/documentation/Test Scenario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRIS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRIS\Documents\Work\gps-app\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA959816-F4FA-42EE-807C-D1DFE97CCB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED27C597-904E-400E-8836-ABE06CE7B677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{79C08135-3606-4AA8-B862-D189B6FD13F2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="1" xr2:uid="{79C08135-3606-4AA8-B862-D189B6FD13F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="139">
   <si>
     <t>Project</t>
   </si>
@@ -306,13 +305,6 @@
     <t>Input username that less than 6 characters</t>
   </si>
   <si>
-    <t>username: chris
-email: test_invalid_email
-full_name: Chris Christian
-password: chris_christian
-confirm_password : chris_christian</t>
-  </si>
-  <si>
     <t>Show 'username must be at least 6 characters long.' error below the input field</t>
   </si>
   <si>
@@ -322,13 +314,6 @@
     <t>Input password that less than 6 characters</t>
   </si>
   <si>
-    <t>username: chris_christian
-email: test_invalid_email
-full_name: Chris Christian
-password: chris
-confirm_password : chris_christian</t>
-  </si>
-  <si>
     <t>Show 'password must be at least 6 characters long.' error below the input field</t>
   </si>
   <si>
@@ -336,13 +321,6 @@
   </si>
   <si>
     <t>password and confirm password input are mismatch</t>
-  </si>
-  <si>
-    <t>username: chris_christian
-email: test_invalid_email
-full_name: Chris Christian
-password: chris_christian
-confirm_password : password_mismatch</t>
   </si>
   <si>
     <t>Show 'Confirm password not match.' error below the input field</t>
@@ -486,6 +464,59 @@
   </si>
   <si>
     <t>Ensure GPS Detail functionality</t>
+  </si>
+  <si>
+    <t>Email already exits</t>
+  </si>
+  <si>
+    <t>Input email already exists when register new user</t>
+  </si>
+  <si>
+    <t>username: chris_christian
+email: justin_bieber@mail.com
+full_name: Chris Christian
+password: chris_christian
+confirm_password : chris_christian</t>
+  </si>
+  <si>
+    <t>Show 'Email already exists' pop up message</t>
+  </si>
+  <si>
+    <t>400 (Bad Request)</t>
+  </si>
+  <si>
+    <t>Username already exits</t>
+  </si>
+  <si>
+    <t>Input username already exists when register new user</t>
+  </si>
+  <si>
+    <t>username: chris
+email: cchristian@example.com
+full_name: Chris Christian
+password: chris_christian
+confirm_password : chris_christian</t>
+  </si>
+  <si>
+    <t>username: chris_christian
+email: cchristian@example.com
+full_name: Chris Christian
+password: chris
+confirm_password : chris_christian</t>
+  </si>
+  <si>
+    <t>username: chris_christian
+email: cchristian@example.com
+full_name: Chris Christian
+password: chris_christian
+confirm_password : password_mismatch</t>
+  </si>
+  <si>
+    <t>username: justin_bieber
+email: cchristian@example.com
+full_name: Chris Christian
+password: chris_christian
+confirm_password : chris_christian</t>
   </si>
 </sst>
 </file>
@@ -599,9 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -611,20 +639,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -632,6 +651,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -950,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2740FD22-AE2C-4254-838B-4395227F8500}">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -974,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -983,7 +1014,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -992,261 +1023,261 @@
         <v>13</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="13" t="s">
-        <v>127</v>
+      <c r="D5" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
-        <v>126</v>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:11" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:11" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1260,6 +1291,11 @@
     <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -1267,11 +1303,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
@@ -1288,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F58AFC-05B0-4F2C-9DE7-FB7424C64872}">
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1312,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1321,7 +1352,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1330,462 +1361,530 @@
         <v>13</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
-        <v>128</v>
+      <c r="D5" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
-        <v>126</v>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:11" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.4">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.4">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="D19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B19" s="5">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="K19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B20" s="4">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="E20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B20" s="5">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="K20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B22" s="4">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B23" s="4">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B21" s="5">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="K23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="24" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -1795,11 +1894,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <hyperlinks>
@@ -1837,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1846,8 +1940,8 @@
         <v>40</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
-        <v>91</v>
+      <c r="D3" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
@@ -1855,293 +1949,293 @@
         <v>13</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
-        <v>90</v>
+      <c r="D4" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="14" t="s">
-        <v>129</v>
+      <c r="D5" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
-        <v>126</v>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="4">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="5">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="5">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2154,6 +2248,11 @@
     <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2163,11 +2262,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <hyperlinks>
@@ -2205,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2214,8 +2308,8 @@
         <v>40</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
-        <v>114</v>
+      <c r="D3" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
@@ -2223,101 +2317,101 @@
         <v>13</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
-        <v>115</v>
+      <c r="D4" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="14" t="s">
-        <v>130</v>
+      <c r="D5" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
-        <v>126</v>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.4">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2331,6 +2425,11 @@
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2340,11 +2439,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <hyperlinks>
@@ -2382,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2391,8 +2485,8 @@
         <v>40</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
-        <v>122</v>
+      <c r="D3" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
@@ -2400,101 +2494,101 @@
         <v>13</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
-        <v>90</v>
+      <c r="D4" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
-        <v>125</v>
+      <c r="D5" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
-        <v>126</v>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2508,6 +2602,11 @@
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2517,11 +2616,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <hyperlinks>
